--- a/experiment result/64_0.5_40_zs0_kappa_lp.xlsx
+++ b/experiment result/64_0.5_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04091340525971988</v>
+        <v>0.005772578187527853</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0720704947035704</v>
+        <v>0.00965632957878697</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09316731413249665</v>
+        <v>0.009621168909957107</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05599670448559996</v>
+        <v>0.01044499889919719</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05627148347210148</v>
+        <v>0.01244296458992597</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0632917444491399</v>
+        <v>0.0131457313016566</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06447771090643781</v>
+        <v>0.004401802677806117</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06506087703838233</v>
+        <v>0.01849019881571505</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07378795981859938</v>
+        <v>0.01125064482674394</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0786230209252301</v>
+        <v>0.01451086471916712</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08603624547861724</v>
+        <v>0.02227848450744215</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1130760178185035</v>
+        <v>0.02737184004859331</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06712500489352254</v>
+        <v>0.009118214028155958</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08283342795767859</v>
+        <v>0.01065276528338128</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07658164466995242</v>
+        <v>0.0175217601926459</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08172898347700384</v>
+        <v>0.01226906257708241</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08824331461967835</v>
+        <v>0.01959341608625648</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03552867573770284</v>
+        <v>0.0007470116263897868</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05581905847776904</v>
+        <v>0.01517854351596224</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09624623338758811</v>
+        <v>0.01646840045394409</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04143178482899273</v>
+        <v>0.01097395555255392</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04854958940552998</v>
+        <v>0.005409790860816989</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07462292834229664</v>
+        <v>0.022118135200249</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02855022073938849</v>
+        <v>0.003172206276518787</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03808996129934204</v>
+        <v>0.004062471622333274</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07226146534874377</v>
+        <v>0.01260179721241332</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06352084279826974</v>
+        <v>0.009239830272911509</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04739203836900813</v>
+        <v>0.01180565749070687</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06219353391793879</v>
+        <v>0.0168705175694923</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07726469933752683</v>
+        <v>0.01162599177674471</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02453142391990268</v>
+        <v>0.002423493480295928</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.050649506020968</v>
+        <v>0.004915903400779522</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1087101740575845</v>
+        <v>0.02042551625310616</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04261316038264616</v>
+        <v>0.005647317895174618</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.05221387486349684</v>
+        <v>0.01047059403671844</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0712804767485179</v>
+        <v>0.01787470229813318</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0621696088532858</v>
+        <v>0.004421082880707122</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07441814227037793</v>
+        <v>0.01229081995162427</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03976206635140599</v>
+        <v>0.01003085564930162</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06768074875242032</v>
+        <v>0.02900277261776388</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.09243771609322352</v>
+        <v>0.02292186232812762</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04466792136543705</v>
+        <v>0.007286001127532046</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04943111647734327</v>
+        <v>0.01451609198315283</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05049110885714857</v>
+        <v>0.01023021766419873</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04943830596439195</v>
+        <v>0.00875314031382848</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06708589732557083</v>
+        <v>0.01482003197921439</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07558835719379746</v>
+        <v>0.02001885713105332</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0452040958671243</v>
+        <v>0.006619218804013038</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.08128740865943258</v>
+        <v>0.01025073091096085</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03563385136647705</v>
+        <v>0.004441388365987854</v>
       </c>
     </row>
   </sheetData>
